--- a/Hasil Tiap PN/SIPP PN NEGARA.xlsx
+++ b/Hasil Tiap PN/SIPP PN NEGARA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\05211740000055\Documents\UiPath\sippfirst\Hasil Tiap PN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\UiPath\sippfirst\Hasil Tiap PN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7DB819-FF17-4214-8866-1D3FE66AB87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED13DD8F-DEE9-415E-B133-4E7605FEAAF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3012" yWindow="2280" windowWidth="17280" windowHeight="9072" xr2:uid="{1998B219-BA3C-4502-B833-A9D369D33047}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{1998B219-BA3C-4502-B833-A9D369D33047}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>139/Pdt.G/2018/PN Nga</t>
   </si>
@@ -56,6 +55,23 @@
   </si>
   <si>
     <t>https://sipp.pn-negara.go.id/</t>
+  </si>
+  <si>
+    <t>Penggugat:
+1.Suko, SH., MH
+2.Rodiyah
+3.Drs Mochamad Agus Irianto
+4.Wildan Nurfahmi
+5.Werda Elisa Dian Witra
+6.Ummu Nihayah
+7.Dra. Rosyidah
+8.Dessi Indri Rosmawati
+9.Murniati
+10.Agus Setiyoutomo
+11.Sri Sunardi AH
+Tergugat:
+1.PT. Bumi Samudera Jedine selaku Developer Proyek Royal Afatar World
+2.PT. Sipoa Legacy Land ditulis juga PT. Sipoa Group</t>
   </si>
 </sst>
 </file>
@@ -91,9 +107,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,15 +428,16 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>22</v>
       </c>
@@ -432,7 +450,7 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
@@ -445,7 +463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>23</v>
       </c>
@@ -458,8 +476,8 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>2</v>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
@@ -471,357 +489,127 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>43341</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>43342</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>43343</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>43344</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>43345</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>43346</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>43347</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>43348</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>43349</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>43350</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
     </row>
   </sheetData>
